--- a/data/trans_orig/Predimed-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>5,94</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 6,29</t>
+          <t>5,66; 6,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 6,07</t>
+          <t>5,51; 6,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 6,08</t>
+          <t>5,73; 6,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>6,17</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 6,31</t>
+          <t>5,74; 6,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 6,46</t>
+          <t>6,03; 6,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 6,29</t>
+          <t>5,99; 6,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,31</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 6,48</t>
+          <t>6,11; 6,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 6,41</t>
+          <t>6,14; 6,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 6,39</t>
+          <t>6,17; 6,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>6,76</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 6,73</t>
+          <t>6,43; 6,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 6,92</t>
+          <t>6,64; 7,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 6,75</t>
+          <t>6,58; 6,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 6,66</t>
+          <t>6,33; 6,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 6,76</t>
+          <t>6,48; 6,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 6,66</t>
+          <t>6,47; 6,71</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>7,02</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,71</t>
+          <t>6,49; 6,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,5; 7,09</t>
+          <t>6,74; 7,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,5; 6,99</t>
+          <t>6,71; 7,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,4</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 6,44</t>
+          <t>6,21; 6,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 6,65</t>
+          <t>6,19; 6,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 6,5</t>
+          <t>6,26; 6,53</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 6,57</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 6,9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 6,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Predimed-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,43</t>
+          <t>5,7; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,15</t>
+          <t>5,48; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 6,2</t>
+          <t>5,7; 6,19</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 6,36</t>
+          <t>5,76; 6,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,03; 6,47</t>
+          <t>6,04; 6,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 6,33</t>
+          <t>5,99; 6,35</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 6,55</t>
+          <t>6,12; 6,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 6,46</t>
+          <t>6,11; 6,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 6,45</t>
+          <t>6,18; 6,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 6,87</t>
+          <t>6,4; 6,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,42</t>
+          <t>6,65; 7,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 6,99</t>
+          <t>6,6; 6,97</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 6,71</t>
+          <t>6,35; 6,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 6,8</t>
+          <t>6,49; 6,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 6,71</t>
+          <t>6,45; 6,7</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 6,92</t>
+          <t>6,49; 6,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 7,5</t>
+          <t>6,69; 7,46</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 6,7</t>
+          <t>6,23; 6,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 6,52</t>
+          <t>6,19; 6,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,26; 6,53</t>
+          <t>6,26; 6,54</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,33; 6,57</t>
+          <t>6,34; 6,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,45; 6,9</t>
+          <t>6,45; 6,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">

--- a/data/trans_orig/Predimed-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Escala adherencia a la dieta mediterránea a través del Predimed</t>
+          <t>Puntuación media de la escala de adherencia a la dieta mediterránea (Predimed)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
